--- a/Doc/일정 달력.xlsx
+++ b/Doc/일정 달력.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyyyw\Desktop\넷겜플\NGP_Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE6E426-2709-4419-9734-6C9A4C049F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875ACAE7-E4EC-4B22-B554-9224A895FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,141 @@
   </si>
   <si>
     <t>12월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박기정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>류연우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 접속부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.render()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Decode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Update()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Encode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick.Render()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick.Decode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick.Update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick.Encode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy.Render</t>
+  </si>
+  <si>
+    <t>Enemy.Decode</t>
+  </si>
+  <si>
+    <t>Enamy.Encode</t>
+  </si>
+  <si>
+    <t>PrePareSocket</t>
+  </si>
+  <si>
+    <t>Connecter</t>
+  </si>
+  <si>
+    <t>CheckGame</t>
+  </si>
+  <si>
+    <t>PlayerManger</t>
+  </si>
+  <si>
+    <t>MakeGame</t>
+  </si>
+  <si>
+    <t>MakePlayer</t>
+  </si>
+  <si>
+    <t>SendPlayerNum</t>
+  </si>
+  <si>
+    <t>KeySender</t>
+  </si>
+  <si>
+    <t>KeyRecevier</t>
+  </si>
+  <si>
+    <t>GameObjectManager.SetKeyBoardData</t>
+  </si>
+  <si>
+    <t>KeyBoardManager</t>
+  </si>
+  <si>
+    <t>KeyBoardManager.SetKeyBoardData</t>
+  </si>
+  <si>
+    <t>알바</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlantProjectile.Encode</t>
+  </si>
+  <si>
+    <t>PlantProjectile.Update</t>
+  </si>
+  <si>
+    <t>PlantProjectile.Decode</t>
+  </si>
+  <si>
+    <t>PlantProjectile.Render</t>
+  </si>
+  <si>
+    <t>callBackFuncs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base:Enemy.Update
+Bird:Enemy.Update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wolf:Enemy.Update
+Plant:Enemy.Update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -68,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +213,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -359,15 +511,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -380,18 +529,41 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -674,683 +846,1145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="22"/>
+    <col min="1" max="2" width="9" style="17"/>
+    <col min="3" max="10" width="10.625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="21.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="17" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4"/>
-      <c r="C4" s="5" t="s">
+    <row r="3" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="5" t="s">
+      <c r="J4" s="22"/>
+      <c r="K4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="L4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="O4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="P4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="Q4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="20">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="15"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="30">
         <v>2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="30">
         <v>3</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="30">
         <v>4</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="31">
         <v>5</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="20">
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="30">
         <v>1</v>
       </c>
-      <c r="O5" s="20">
+      <c r="N5" s="30">
         <v>2</v>
       </c>
-      <c r="P5" s="20">
+      <c r="O5" s="30">
         <v>3</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="P5" s="30">
         <v>4</v>
       </c>
-      <c r="R5" s="21">
+      <c r="Q5" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="32">
+        <v>6</v>
+      </c>
+      <c r="D7" s="33">
+        <v>7</v>
+      </c>
+      <c r="E7" s="33">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="F7" s="33">
+        <v>9</v>
+      </c>
+      <c r="G7" s="33">
+        <v>10</v>
+      </c>
+      <c r="H7" s="33">
+        <v>11</v>
+      </c>
+      <c r="I7" s="34">
+        <v>12</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="32">
         <v>6</v>
       </c>
-      <c r="D7" s="9">
+      <c r="L7" s="33">
         <v>7</v>
       </c>
-      <c r="E7" s="9">
+      <c r="M7" s="33">
         <v>8</v>
       </c>
-      <c r="F7" s="9">
+      <c r="N7" s="33">
         <v>9</v>
       </c>
-      <c r="G7" s="9">
+      <c r="O7" s="33">
         <v>10</v>
       </c>
-      <c r="H7" s="9">
+      <c r="P7" s="33">
         <v>11</v>
       </c>
-      <c r="I7" s="12">
+      <c r="Q7" s="34">
         <v>12</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="8">
+    </row>
+    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="C8" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="32">
+        <v>13</v>
+      </c>
+      <c r="D9" s="33">
+        <v>14</v>
+      </c>
+      <c r="E9" s="33">
+        <v>15</v>
+      </c>
+      <c r="F9" s="33">
+        <v>16</v>
+      </c>
+      <c r="G9" s="33">
+        <v>17</v>
+      </c>
+      <c r="H9" s="33">
+        <v>18</v>
+      </c>
+      <c r="I9" s="34">
+        <v>19</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="32">
+        <v>13</v>
+      </c>
+      <c r="L9" s="33">
+        <v>14</v>
+      </c>
+      <c r="M9" s="33">
+        <v>15</v>
+      </c>
+      <c r="N9" s="33">
+        <v>16</v>
+      </c>
+      <c r="O9" s="33">
+        <v>17</v>
+      </c>
+      <c r="P9" s="33">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C11" s="32">
+        <v>20</v>
+      </c>
+      <c r="D11" s="33">
+        <v>21</v>
+      </c>
+      <c r="E11" s="33">
+        <v>22</v>
+      </c>
+      <c r="F11" s="33">
+        <v>23</v>
+      </c>
+      <c r="G11" s="33">
+        <v>24</v>
+      </c>
+      <c r="H11" s="33">
+        <v>25</v>
+      </c>
+      <c r="I11" s="34">
+        <v>26</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="32">
+        <v>20</v>
+      </c>
+      <c r="L11" s="33">
+        <v>21</v>
+      </c>
+      <c r="M11" s="33">
+        <v>22</v>
+      </c>
+      <c r="N11" s="33">
+        <v>23</v>
+      </c>
+      <c r="O11" s="33">
+        <v>24</v>
+      </c>
+      <c r="P11" s="33">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="32">
+        <v>27</v>
+      </c>
+      <c r="D13" s="33">
+        <v>28</v>
+      </c>
+      <c r="E13" s="33">
+        <v>29</v>
+      </c>
+      <c r="F13" s="33">
+        <v>30</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35">
+        <v>2</v>
+      </c>
+      <c r="I13" s="36">
+        <v>3</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="32">
+        <v>27</v>
+      </c>
+      <c r="L13" s="33">
+        <v>28</v>
+      </c>
+      <c r="M13" s="33">
+        <v>29</v>
+      </c>
+      <c r="N13" s="33">
+        <v>30</v>
+      </c>
+      <c r="O13" s="35">
+        <v>1</v>
+      </c>
+      <c r="P13" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C15" s="37">
+        <v>4</v>
+      </c>
+      <c r="D15" s="35">
+        <v>5</v>
+      </c>
+      <c r="E15" s="35">
         <v>6</v>
       </c>
-      <c r="M7" s="9">
+      <c r="F15" s="35">
         <v>7</v>
       </c>
-      <c r="N7" s="9">
+      <c r="G15" s="35">
         <v>8</v>
       </c>
-      <c r="O7" s="9">
+      <c r="H15" s="35">
         <v>9</v>
       </c>
-      <c r="P7" s="9">
+      <c r="I15" s="36">
         <v>10</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="J15" s="19"/>
+      <c r="K15" s="37">
+        <v>4</v>
+      </c>
+      <c r="L15" s="35">
+        <v>5</v>
+      </c>
+      <c r="M15" s="35">
+        <v>6</v>
+      </c>
+      <c r="N15" s="35">
+        <v>7</v>
+      </c>
+      <c r="O15" s="35">
+        <v>8</v>
+      </c>
+      <c r="P15" s="35">
+        <v>9</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C16" s="13"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="37">
         <v>11</v>
       </c>
-      <c r="R7" s="12">
+      <c r="D17" s="35">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="12"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="C9" s="8">
+      <c r="E17" s="35">
         <v>13</v>
       </c>
-      <c r="D9" s="9">
+      <c r="F17" s="35">
         <v>14</v>
       </c>
-      <c r="E9" s="9">
+      <c r="G17" s="38">
         <v>15</v>
       </c>
-      <c r="F9" s="9">
+      <c r="H17" s="38">
         <v>16</v>
       </c>
-      <c r="G9" s="9">
+      <c r="I17" s="39">
         <v>17</v>
       </c>
-      <c r="H9" s="9">
+      <c r="J17" s="19"/>
+      <c r="K17" s="37">
+        <v>11</v>
+      </c>
+      <c r="L17" s="35">
+        <v>12</v>
+      </c>
+      <c r="M17" s="35">
+        <v>13</v>
+      </c>
+      <c r="N17" s="35">
+        <v>14</v>
+      </c>
+      <c r="O17" s="38">
+        <v>15</v>
+      </c>
+      <c r="P17" s="38">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="18"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+    </row>
+    <row r="21" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+    </row>
+    <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="42"/>
+      <c r="K22" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C23" s="40"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30">
+        <v>2</v>
+      </c>
+      <c r="G23" s="30">
+        <v>3</v>
+      </c>
+      <c r="H23" s="30">
+        <v>4</v>
+      </c>
+      <c r="I23" s="31">
+        <v>5</v>
+      </c>
+      <c r="J23" s="43"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="30">
+        <v>1</v>
+      </c>
+      <c r="N23" s="30">
+        <v>2</v>
+      </c>
+      <c r="O23" s="30">
+        <v>3</v>
+      </c>
+      <c r="P23" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="31">
+        <v>5</v>
+      </c>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C25" s="32">
+        <v>6</v>
+      </c>
+      <c r="D25" s="33">
+        <v>7</v>
+      </c>
+      <c r="E25" s="33">
+        <v>8</v>
+      </c>
+      <c r="F25" s="33">
+        <v>9</v>
+      </c>
+      <c r="G25" s="33">
+        <v>10</v>
+      </c>
+      <c r="H25" s="33">
+        <v>11</v>
+      </c>
+      <c r="I25" s="34">
+        <v>12</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="32">
+        <v>6</v>
+      </c>
+      <c r="L25" s="33">
+        <v>7</v>
+      </c>
+      <c r="M25" s="33">
+        <v>8</v>
+      </c>
+      <c r="N25" s="33">
+        <v>9</v>
+      </c>
+      <c r="O25" s="33">
+        <v>10</v>
+      </c>
+      <c r="P25" s="33">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C27" s="32">
+        <v>13</v>
+      </c>
+      <c r="D27" s="33">
+        <v>14</v>
+      </c>
+      <c r="E27" s="33">
+        <v>15</v>
+      </c>
+      <c r="F27" s="33">
+        <v>16</v>
+      </c>
+      <c r="G27" s="33">
+        <v>17</v>
+      </c>
+      <c r="H27" s="33">
         <v>18</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I27" s="34">
         <v>19</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="8">
+      <c r="J27" s="44"/>
+      <c r="K27" s="32">
         <v>13</v>
       </c>
-      <c r="M9" s="9">
+      <c r="L27" s="33">
         <v>14</v>
       </c>
-      <c r="N9" s="9">
+      <c r="M27" s="33">
         <v>15</v>
       </c>
-      <c r="O9" s="9">
+      <c r="N27" s="33">
         <v>16</v>
       </c>
-      <c r="P9" s="9">
+      <c r="O27" s="33">
         <v>17</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="P27" s="33">
         <v>18</v>
       </c>
-      <c r="R9" s="12">
+      <c r="Q27" s="34">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="8">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C28" s="45"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C29" s="32">
         <v>20</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D29" s="33">
         <v>21</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E29" s="33">
         <v>22</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F29" s="33">
         <v>23</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G29" s="33">
         <v>24</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H29" s="33">
         <v>25</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I29" s="34">
         <v>26</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="8">
+      <c r="J29" s="44"/>
+      <c r="K29" s="32">
         <v>20</v>
       </c>
-      <c r="M11" s="9">
+      <c r="L29" s="33">
         <v>21</v>
       </c>
-      <c r="N11" s="9">
+      <c r="M29" s="33">
         <v>22</v>
       </c>
-      <c r="O11" s="9">
+      <c r="N29" s="33">
         <v>23</v>
       </c>
-      <c r="P11" s="9">
+      <c r="O29" s="33">
         <v>24</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="P29" s="33">
         <v>25</v>
       </c>
-      <c r="R11" s="12">
+      <c r="Q29" s="34">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="12"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C13" s="8">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C31" s="32">
         <v>27</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D31" s="33">
         <v>28</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E31" s="33">
         <v>29</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F31" s="33">
         <v>30</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G31" s="35">
         <v>1</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H31" s="35">
         <v>2</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I31" s="36">
         <v>3</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="8">
+      <c r="J31" s="44"/>
+      <c r="K31" s="32">
         <v>27</v>
       </c>
-      <c r="M13" s="9">
+      <c r="L31" s="33">
         <v>28</v>
       </c>
-      <c r="N13" s="9">
+      <c r="M31" s="33">
         <v>29</v>
       </c>
-      <c r="O13" s="9">
+      <c r="N31" s="33">
         <v>30</v>
       </c>
-      <c r="P13" s="13">
+      <c r="O31" s="35">
         <v>1</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="P31" s="35">
         <v>2</v>
       </c>
-      <c r="R13" s="14">
+      <c r="Q31" s="36">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C15" s="16">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C33" s="37">
         <v>4</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D33" s="35">
         <v>5</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E33" s="35">
         <v>6</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F33" s="35">
         <v>7</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G33" s="35">
         <v>8</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H33" s="35">
         <v>9</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I33" s="36">
         <v>10</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="16">
+      <c r="J33" s="44"/>
+      <c r="K33" s="37">
         <v>4</v>
       </c>
-      <c r="M15" s="13">
+      <c r="L33" s="35">
         <v>5</v>
       </c>
-      <c r="N15" s="13">
+      <c r="M33" s="35">
         <v>6</v>
       </c>
-      <c r="O15" s="13">
+      <c r="N33" s="35">
         <v>7</v>
       </c>
-      <c r="P15" s="13">
+      <c r="O33" s="35">
         <v>8</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="P33" s="35">
         <v>9</v>
       </c>
-      <c r="R15" s="14">
+      <c r="Q33" s="36">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C16" s="16"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
-      <c r="C17" s="16">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="C35" s="37">
         <v>11</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D35" s="35">
         <v>12</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E35" s="35">
         <v>13</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F35" s="35">
         <v>14</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G35" s="38">
         <v>15</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H35" s="38">
         <v>16</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I35" s="39">
         <v>17</v>
       </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="16">
+      <c r="J35" s="44"/>
+      <c r="K35" s="37">
         <v>11</v>
       </c>
-      <c r="M17" s="13">
+      <c r="L35" s="35">
         <v>12</v>
       </c>
-      <c r="N17" s="13">
+      <c r="M35" s="35">
         <v>13</v>
       </c>
-      <c r="O17" s="13">
+      <c r="N35" s="35">
         <v>14</v>
       </c>
-      <c r="P17" s="25">
+      <c r="O35" s="38">
         <v>15</v>
       </c>
-      <c r="Q17" s="25">
+      <c r="P35" s="38">
         <v>16</v>
       </c>
-      <c r="R17" s="26">
+      <c r="Q35" s="39">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="23"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="J30" s="24"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="J32" s="24"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J34" s="24"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-    </row>
-    <row r="36" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+    <row r="36" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="21"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/일정 달력.xlsx
+++ b/Doc/일정 달력.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyyyw\Desktop\넷겜플\NGP_Project\Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Project\NGP_Project\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875ACAE7-E4EC-4B22-B554-9224A895FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC1D33F-45B5-4ED5-8698-5417CF8B8283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,55 +72,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 접속부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>실제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.render()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Decode()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Update()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Encode()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brick.Render()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brick.Decode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brick.Update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brick.Encode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +152,111 @@
   <si>
     <t>Wolf:Enemy.Update
 Plant:Enemy.Update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class GameObject
+class Creature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class Player declaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Set*()
+Player.Get*()
+Player.MakePlayer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Render()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class Game
+class GameObjectManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectManager.Render()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class MapObject
+class Brick declaration
+class BackGround declaration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick.Render()
+Brick.Update()
+Brick.Encode()
+Brick.Decode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackGround.Render()
+BackGround.Update()
+BackGround.Encode()
+BackGround.Decode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Move()
+Player.Dash()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Collision()
+Player.UseSkill()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class KeyBoardManager
+Player.Update()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player.Encode()
+Player.Decode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectManager.Encode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSender()
+Encode()
+Game.DataEncode()
+Game.DataSender()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataReceiver()
+Game.DataReceiver()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decoder()
+GameObjectManager.Decode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectManager.SwapDataBuffer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetObjectData()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectManager Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final Check Week</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -527,19 +588,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -562,8 +618,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -844,16 +909,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:S38"/>
+  <dimension ref="A3:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="17"/>
-    <col min="3" max="10" width="10.625" style="17" customWidth="1"/>
+    <col min="3" max="9" width="16.75" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="17" customWidth="1"/>
     <col min="11" max="11" width="21.25" style="17" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34.5" style="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" style="17" bestFit="1" customWidth="1"/>
@@ -875,110 +941,107 @@
     </row>
     <row r="4" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="27" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B5" s="15"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="30">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="42">
         <v>1</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="42">
         <v>2</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="42">
         <v>3</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="42">
         <v>4</v>
       </c>
-      <c r="I5" s="31">
+      <c r="I5" s="43">
         <v>5</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="30">
+      <c r="M5" s="27">
         <v>1</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="27">
         <v>2</v>
       </c>
-      <c r="O5" s="30">
+      <c r="O5" s="27">
         <v>3</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="27">
         <v>4</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="19"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="4"/>
       <c r="M6" s="7"/>
@@ -986,363 +1049,375 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="8" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
-      <c r="C7" s="32">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="6">
         <v>7</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="6">
         <v>8</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="6">
         <v>9</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="6">
         <v>10</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="6">
         <v>11</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="9">
         <v>12</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="32">
+      <c r="K7" s="29">
         <v>6</v>
       </c>
-      <c r="L7" s="33">
+      <c r="L7" s="30">
         <v>7</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="30">
         <v>8</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="30">
         <v>9</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="30">
         <v>10</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="30">
         <v>11</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="31">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:17" ht="99" x14ac:dyDescent="0.3">
+      <c r="C8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>16</v>
+      </c>
+      <c r="G9" s="6">
+        <v>17</v>
+      </c>
+      <c r="H9" s="6">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9">
         <v>19</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="26" t="s">
+      <c r="K9" s="29">
+        <v>13</v>
+      </c>
+      <c r="L9" s="30">
+        <v>14</v>
+      </c>
+      <c r="M9" s="30">
+        <v>15</v>
+      </c>
+      <c r="N9" s="30">
+        <v>16</v>
+      </c>
+      <c r="O9" s="30">
+        <v>17</v>
+      </c>
+      <c r="P9" s="30">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="132" x14ac:dyDescent="0.3">
+      <c r="C10" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C9" s="32">
-        <v>13</v>
-      </c>
-      <c r="D9" s="33">
-        <v>14</v>
-      </c>
-      <c r="E9" s="33">
-        <v>15</v>
-      </c>
-      <c r="F9" s="33">
-        <v>16</v>
-      </c>
-      <c r="G9" s="33">
-        <v>17</v>
-      </c>
-      <c r="H9" s="33">
-        <v>18</v>
-      </c>
-      <c r="I9" s="34">
-        <v>19</v>
-      </c>
-      <c r="J9" s="19"/>
-      <c r="K9" s="32">
-        <v>13</v>
-      </c>
-      <c r="L9" s="33">
-        <v>14</v>
-      </c>
-      <c r="M9" s="33">
-        <v>15</v>
-      </c>
-      <c r="N9" s="33">
-        <v>16</v>
-      </c>
-      <c r="O9" s="33">
-        <v>17</v>
-      </c>
-      <c r="P9" s="33">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="19"/>
       <c r="K10" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C11" s="32">
+      <c r="C11" s="5">
         <v>20</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="6">
         <v>21</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="6">
         <v>22</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="6">
         <v>23</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="6">
         <v>24</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="6">
         <v>25</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="9">
         <v>26</v>
       </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="32">
+      <c r="K11" s="29">
         <v>20</v>
       </c>
-      <c r="L11" s="33">
+      <c r="L11" s="30">
         <v>21</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="30">
         <v>22</v>
       </c>
-      <c r="N11" s="33">
+      <c r="N11" s="30">
         <v>23</v>
       </c>
-      <c r="O11" s="33">
+      <c r="O11" s="30">
         <v>24</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="30">
         <v>25</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="31">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="19"/>
+    <row r="12" spans="1:17" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="C12" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>27</v>
+      </c>
+      <c r="D13" s="6">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6">
         <v>29</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C13" s="32">
+      <c r="F13" s="6">
+        <v>30</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>2</v>
+      </c>
+      <c r="I13" s="11">
+        <v>3</v>
+      </c>
+      <c r="K13" s="29">
         <v>27</v>
       </c>
-      <c r="D13" s="33">
+      <c r="L13" s="30">
         <v>28</v>
       </c>
-      <c r="E13" s="33">
+      <c r="M13" s="30">
         <v>29</v>
       </c>
-      <c r="F13" s="33">
+      <c r="N13" s="30">
         <v>30</v>
       </c>
-      <c r="G13" s="35">
+      <c r="O13" s="32">
         <v>1</v>
       </c>
-      <c r="H13" s="35">
+      <c r="P13" s="32">
         <v>2</v>
       </c>
-      <c r="I13" s="36">
+      <c r="Q13" s="33">
         <v>3</v>
       </c>
-      <c r="J13" s="19"/>
-      <c r="K13" s="32">
-        <v>27</v>
-      </c>
-      <c r="L13" s="33">
-        <v>28</v>
-      </c>
-      <c r="M13" s="33">
-        <v>29</v>
-      </c>
-      <c r="N13" s="33">
-        <v>30</v>
-      </c>
-      <c r="O13" s="35">
-        <v>1</v>
-      </c>
-      <c r="P13" s="35">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C14" s="5"/>
+    </row>
+    <row r="14" spans="1:17" ht="66" x14ac:dyDescent="0.3">
+      <c r="C14" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="E14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="19"/>
+      <c r="I14" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="C15" s="37">
+      <c r="C15" s="13">
         <v>4</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="10">
         <v>5</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="10">
         <v>6</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="10">
         <v>7</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="10">
         <v>8</v>
       </c>
-      <c r="H15" s="35">
+      <c r="H15" s="10">
         <v>9</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="11">
         <v>10</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="37">
+      <c r="K15" s="34">
         <v>4</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15" s="32">
         <v>5</v>
       </c>
-      <c r="M15" s="35">
+      <c r="M15" s="32">
         <v>6</v>
       </c>
-      <c r="N15" s="35">
+      <c r="N15" s="32">
         <v>7</v>
       </c>
-      <c r="O15" s="35">
+      <c r="O15" s="32">
         <v>8</v>
       </c>
-      <c r="P15" s="35">
+      <c r="P15" s="32">
         <v>9</v>
       </c>
-      <c r="Q15" s="36">
+      <c r="Q15" s="33">
         <v>10</v>
       </c>
     </row>
@@ -1352,248 +1427,179 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="11"/>
-      <c r="J16" s="19"/>
       <c r="K16" s="13" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C17" s="13">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="10">
         <v>12</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="10">
         <v>13</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="10">
         <v>14</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="46">
         <v>15</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="46">
         <v>16</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="47">
         <v>17</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="37">
+      <c r="K17" s="34">
         <v>11</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17" s="32">
         <v>12</v>
       </c>
-      <c r="M17" s="35">
+      <c r="M17" s="32">
         <v>13</v>
       </c>
-      <c r="N17" s="35">
+      <c r="N17" s="32">
         <v>14</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="35">
         <v>15</v>
       </c>
-      <c r="P17" s="38">
+      <c r="P17" s="35">
         <v>16</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="36">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="18"/>
+    <row r="18" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="23"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="14"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19"/>
-    </row>
-    <row r="21" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-    </row>
-    <row r="22" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="28" t="s">
+      <c r="H22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="27" t="s">
+      <c r="J22" s="39"/>
+      <c r="K22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="L22" s="28" t="s">
+      <c r="L22" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M22" s="28" t="s">
+      <c r="M22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="28" t="s">
+      <c r="O22" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="28" t="s">
+      <c r="P22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="29" t="s">
+      <c r="Q22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="R22" s="19"/>
-      <c r="S22" s="19"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="30">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="27">
         <v>1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="27">
         <v>2</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="27">
         <v>3</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="27">
         <v>4</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="28">
         <v>5</v>
       </c>
-      <c r="J23" s="43"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="30">
+      <c r="J23" s="40"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="27">
         <v>1</v>
       </c>
-      <c r="N23" s="30">
+      <c r="N23" s="27">
         <v>2</v>
       </c>
-      <c r="O23" s="30">
+      <c r="O23" s="27">
         <v>3</v>
       </c>
-      <c r="P23" s="30">
+      <c r="P23" s="27">
         <v>4</v>
       </c>
-      <c r="Q23" s="31">
+      <c r="Q23" s="28">
         <v>5</v>
       </c>
-      <c r="R23" s="19"/>
-      <c r="S23" s="19"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="8"/>
-      <c r="J24" s="19"/>
       <c r="K24" s="3"/>
       <c r="L24" s="4"/>
       <c r="M24" s="7"/>
@@ -1602,52 +1608,52 @@
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C25" s="32">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C25" s="29">
         <v>6</v>
       </c>
-      <c r="D25" s="33">
+      <c r="D25" s="30">
         <v>7</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="30">
         <v>8</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="30">
         <v>9</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="30">
         <v>10</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="30">
         <v>11</v>
       </c>
-      <c r="I25" s="34">
+      <c r="I25" s="31">
         <v>12</v>
       </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="32">
+      <c r="J25" s="40"/>
+      <c r="K25" s="29">
         <v>6</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="30">
         <v>7</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="30">
         <v>8</v>
       </c>
-      <c r="N25" s="33">
+      <c r="N25" s="30">
         <v>9</v>
       </c>
-      <c r="O25" s="33">
+      <c r="O25" s="30">
         <v>10</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="30">
         <v>11</v>
       </c>
-      <c r="Q25" s="34">
+      <c r="Q25" s="31">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
@@ -1655,7 +1661,6 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="9"/>
-      <c r="J26" s="19"/>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -1664,60 +1669,59 @@
       <c r="P26" s="6"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="32">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C27" s="29">
         <v>13</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="30">
         <v>14</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="30">
         <v>15</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="30">
         <v>16</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="30">
         <v>17</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="30">
         <v>18</v>
       </c>
-      <c r="I27" s="34">
+      <c r="I27" s="31">
         <v>19</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="32">
+      <c r="J27" s="40"/>
+      <c r="K27" s="29">
         <v>13</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="30">
         <v>14</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="30">
         <v>15</v>
       </c>
-      <c r="N27" s="33">
+      <c r="N27" s="30">
         <v>16</v>
       </c>
-      <c r="O27" s="33">
+      <c r="O27" s="30">
         <v>17</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="30">
         <v>18</v>
       </c>
-      <c r="Q27" s="34">
+      <c r="Q27" s="31">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C28" s="45"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="41"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="9"/>
-      <c r="J28" s="19"/>
       <c r="K28" s="5"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -1726,52 +1730,52 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="9"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="32">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="29">
         <v>20</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="30">
         <v>21</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="30">
         <v>22</v>
       </c>
-      <c r="F29" s="33">
+      <c r="F29" s="30">
         <v>23</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="30">
         <v>24</v>
       </c>
-      <c r="H29" s="33">
+      <c r="H29" s="30">
         <v>25</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I29" s="31">
         <v>26</v>
       </c>
-      <c r="J29" s="44"/>
-      <c r="K29" s="32">
+      <c r="J29" s="40"/>
+      <c r="K29" s="29">
         <v>20</v>
       </c>
-      <c r="L29" s="33">
+      <c r="L29" s="30">
         <v>21</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="30">
         <v>22</v>
       </c>
-      <c r="N29" s="33">
+      <c r="N29" s="30">
         <v>23</v>
       </c>
-      <c r="O29" s="33">
+      <c r="O29" s="30">
         <v>24</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="30">
         <v>25</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q29" s="31">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1779,7 +1783,6 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="9"/>
-      <c r="J30" s="19"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -1788,52 +1791,52 @@
       <c r="P30" s="6"/>
       <c r="Q30" s="9"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C31" s="32">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C31" s="29">
         <v>27</v>
       </c>
-      <c r="D31" s="33">
+      <c r="D31" s="30">
         <v>28</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="30">
         <v>29</v>
       </c>
-      <c r="F31" s="33">
+      <c r="F31" s="30">
         <v>30</v>
       </c>
-      <c r="G31" s="35">
+      <c r="G31" s="32">
         <v>1</v>
       </c>
-      <c r="H31" s="35">
+      <c r="H31" s="32">
         <v>2</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="33">
         <v>3</v>
       </c>
-      <c r="J31" s="44"/>
-      <c r="K31" s="32">
+      <c r="J31" s="40"/>
+      <c r="K31" s="29">
         <v>27</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="30">
         <v>28</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="30">
         <v>29</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="30">
         <v>30</v>
       </c>
-      <c r="O31" s="35">
+      <c r="O31" s="32">
         <v>1</v>
       </c>
-      <c r="P31" s="35">
+      <c r="P31" s="32">
         <v>2</v>
       </c>
-      <c r="Q31" s="36">
+      <c r="Q31" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -1841,7 +1844,6 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="19"/>
       <c r="K32" s="5"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -1851,47 +1853,47 @@
       <c r="Q32" s="11"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C33" s="37">
+      <c r="C33" s="34">
         <v>4</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="32">
         <v>5</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="32">
         <v>6</v>
       </c>
-      <c r="F33" s="35">
+      <c r="F33" s="32">
         <v>7</v>
       </c>
-      <c r="G33" s="35">
+      <c r="G33" s="32">
         <v>8</v>
       </c>
-      <c r="H33" s="35">
+      <c r="H33" s="32">
         <v>9</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="33">
         <v>10</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="37">
+      <c r="J33" s="40"/>
+      <c r="K33" s="34">
         <v>4</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33" s="32">
         <v>5</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="32">
         <v>6</v>
       </c>
-      <c r="N33" s="35">
+      <c r="N33" s="32">
         <v>7</v>
       </c>
-      <c r="O33" s="35">
+      <c r="O33" s="32">
         <v>8</v>
       </c>
-      <c r="P33" s="35">
+      <c r="P33" s="32">
         <v>9</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="33">
         <v>10</v>
       </c>
     </row>
@@ -1903,7 +1905,6 @@
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="19"/>
       <c r="K34" s="13"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -1913,47 +1914,47 @@
       <c r="Q34" s="11"/>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="C35" s="37">
+      <c r="C35" s="34">
         <v>11</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="32">
         <v>12</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="32">
         <v>13</v>
       </c>
-      <c r="F35" s="35">
+      <c r="F35" s="32">
         <v>14</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="35">
         <v>15</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="35">
         <v>16</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="36">
         <v>17</v>
       </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="37">
+      <c r="J35" s="40"/>
+      <c r="K35" s="34">
         <v>11</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35" s="32">
         <v>12</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="32">
         <v>13</v>
       </c>
-      <c r="N35" s="35">
+      <c r="N35" s="32">
         <v>14</v>
       </c>
-      <c r="O35" s="38">
+      <c r="O35" s="35">
         <v>15</v>
       </c>
-      <c r="P35" s="38">
+      <c r="P35" s="35">
         <v>16</v>
       </c>
-      <c r="Q35" s="39">
+      <c r="Q35" s="36">
         <v>17</v>
       </c>
     </row>
@@ -1962,29 +1963,17 @@
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="23"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="14"/>
       <c r="L36" s="12"/>
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="21"/>
-    </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-    </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.3">
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
